--- a/ASVImport/Config/config.xlsx
+++ b/ASVImport/Config/config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Makros\ASV-Import-PS\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Makros\ASV-Import-PS - Test\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31965" yWindow="2925" windowWidth="18480" windowHeight="15435" activeTab="1"/>
+    <workbookView xWindow="1470" yWindow="15" windowWidth="28170" windowHeight="15585" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Konfession" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Reliunterricht" sheetId="5" r:id="rId4"/>
     <sheet name="KlassenZuweisung" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,11 +28,257 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>XML-Konfession</t>
   </si>
   <si>
+    <t>ASV-Reli-Kurzform</t>
+  </si>
+  <si>
+    <t>sonstige Rel.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>ohne Bekenntnis</t>
+  </si>
+  <si>
+    <t>evangelisch</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>röm.kath.</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>syrisch-orth.</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>islamisch</t>
+  </si>
+  <si>
+    <t>altkath.</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>serbisch-orth.</t>
+  </si>
+  <si>
+    <t>russisch-orth.</t>
+  </si>
+  <si>
+    <t>neuapost.</t>
+  </si>
+  <si>
+    <t>StaatsangehoerigkeitFormular</t>
+  </si>
+  <si>
+    <t>ASV-Staats-Kurzform</t>
+  </si>
+  <si>
+    <t>deutsch</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>bosnisch-herzegowinisch</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>ohne Bezeichnung</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>rumänisch</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>albanisch</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>russisch</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>polnisch</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>bulgarisch</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>ungarisch</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>kanadisch</t>
+  </si>
+  <si>
+    <t>CDN</t>
+  </si>
+  <si>
+    <t>syrischkroatisch</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>türkisch</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>kosovarisch</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>dänisch</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>ghanaisch</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>kroatisch</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>italienisch</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>indisch</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>syrisch</t>
+  </si>
+  <si>
+    <t>ivorisch</t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t>portugiesisch</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>griechisch</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>tschechisch</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>ukrainisch</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>montenegrinisch</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>afghanisch</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>mazedonisch/Bürger der Republik Nordmazedonien</t>
+  </si>
+  <si>
+    <t>serbisch</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>iranisch</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>irakisch</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>BerufsbezeichnungFormular</t>
+  </si>
+  <si>
+    <t>ASV-Berufs-ID</t>
+  </si>
+  <si>
+    <t>Fachinformatiker - Systemintegration</t>
+  </si>
+  <si>
+    <t>Fachinformatiker - Daten- und Prozessanalyse</t>
+  </si>
+  <si>
+    <t>Fachinformatiker/-in  Digitale Vernetzung</t>
+  </si>
+  <si>
+    <t>Fachinformatiker - Anwendungsentwicklung</t>
+  </si>
+  <si>
     <t>ASV-RU</t>
   </si>
   <si>
@@ -42,342 +288,26 @@
     <t>ETH</t>
   </si>
   <si>
-    <t>evangelisch</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>röm.kath.</t>
-  </si>
-  <si>
-    <t>RK</t>
-  </si>
-  <si>
-    <t>StaatsangehoerigkeitFormular</t>
-  </si>
-  <si>
-    <t>ASV-Staats-Kurzform</t>
-  </si>
-  <si>
-    <t>deutsch</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>bosnisch-herzegowinisch</t>
-  </si>
-  <si>
-    <t>BIH</t>
-  </si>
-  <si>
-    <t>ohne Bezeichnung</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>rumänisch</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>albanisch</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>russisch</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>polnisch</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>bulgarisch</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>ungarisch</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>kanadisch</t>
-  </si>
-  <si>
-    <t>CDN</t>
-  </si>
-  <si>
-    <t>syrischkroatisch</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>türkisch</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>kosovarisch</t>
-  </si>
-  <si>
-    <t>XK</t>
-  </si>
-  <si>
-    <t>dänisch</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>ghanaisch</t>
-  </si>
-  <si>
-    <t>GH</t>
-  </si>
-  <si>
-    <t>kroatisch</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>italienisch</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>indisch</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>syrisch</t>
-  </si>
-  <si>
-    <t>ivorisch</t>
-  </si>
-  <si>
-    <t>RCA</t>
-  </si>
-  <si>
-    <t>portugiesisch</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>griechisch</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>tschechisch</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>ukrainisch</t>
-  </si>
-  <si>
-    <t>UA</t>
-  </si>
-  <si>
-    <t>montenegrinisch</t>
-  </si>
-  <si>
-    <t>MON</t>
-  </si>
-  <si>
-    <t>afghanisch</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>mazedonisch/Bürger der Republik Nordmazedonien</t>
-  </si>
-  <si>
-    <t>serbisch</t>
-  </si>
-  <si>
-    <t>SRB</t>
-  </si>
-  <si>
-    <t>BerufsbezeichnungFormular</t>
-  </si>
-  <si>
-    <t>ASV-Berufs-ID</t>
-  </si>
-  <si>
-    <t>Elektroanlagenmonteur</t>
-  </si>
-  <si>
-    <t>Elektroniker FR: Energie- und Gebäudetechnik</t>
-  </si>
-  <si>
-    <t>Elektroniker FR: Automatisierungstechnik</t>
-  </si>
-  <si>
-    <t>Elektroniker für Betriebstechnik</t>
-  </si>
-  <si>
-    <t>Elektroniker für Betriebstechnik - Hochschule Dual</t>
-  </si>
-  <si>
-    <t>Elektroniker für Gebäude- und Infrastruktursysteme</t>
-  </si>
-  <si>
-    <t>Elektroniker für Geräte und Systeme</t>
-  </si>
-  <si>
-    <t>Elektroniker für Geräte und Systeme - Hochschule Dual</t>
-  </si>
-  <si>
-    <t>Elektroniker Maschinen Antriebstechnik</t>
-  </si>
-  <si>
-    <t>Elektroniker FR: Automatisierungs- und Systemtechnik</t>
-  </si>
-  <si>
-    <t>Elektroniker/-in FR Energie- und Gebäudetechnik</t>
-  </si>
-  <si>
-    <t>Elektroniker/-in für Gebäudesystemintegration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektroniker/-in für Maschinen und Antriebstechnik </t>
-  </si>
-  <si>
-    <t>Industrieelektriker FR: Betriebstechnik</t>
-  </si>
-  <si>
-    <t>Industrieelektriker FR: Geräte und Systeme</t>
-  </si>
-  <si>
-    <t>Informationselektroniker/-in</t>
-  </si>
-  <si>
-    <t>Mechatroniker</t>
-  </si>
-  <si>
-    <t>Fachinformatiker - Systemintegration</t>
-  </si>
-  <si>
-    <t>Fachinformatiker - Daten- und Prozessanalyse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachinformatiker/-in  Digitale Vernetzung</t>
-  </si>
-  <si>
-    <t>Informations- und Telekommunikationssystem-Elektroniker</t>
-  </si>
-  <si>
-    <t>Fachinformatiker - Anwendungsentwicklung</t>
-  </si>
-  <si>
-    <t>Informationselektroniker</t>
-  </si>
-  <si>
-    <t>Elektroniker FR: Informations- und Telekommunikationstechnik</t>
-  </si>
-  <si>
-    <t>Fachinformatiker - Digitale Vernetzung</t>
-  </si>
-  <si>
-    <t>Elektroniker für Maschinen- und Antriebstechnik</t>
-  </si>
-  <si>
-    <t>Elektroniker für Informations- und Systemtechnik</t>
-  </si>
-  <si>
-    <t>ASV-Reli-Kurzform</t>
-  </si>
-  <si>
-    <t>sonstige Rel.</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>ohne Bekenntnis</t>
-  </si>
-  <si>
-    <t>syrisch-orth.</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>islamisch</t>
-  </si>
-  <si>
-    <t>altkath.</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>serbisch-orth.</t>
-  </si>
-  <si>
-    <t>russisch-orth.</t>
-  </si>
-  <si>
-    <t>neuapost.</t>
+    <t>Beruf</t>
+  </si>
+  <si>
+    <t>Ausbildungsdauer</t>
   </si>
   <si>
     <t>Klasse</t>
   </si>
   <si>
-    <t>Beruf</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>10FI</t>
-  </si>
-  <si>
-    <t>FISI</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>10IT</t>
-  </si>
-  <si>
-    <t>ITSE</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>Neu</t>
+  </si>
+  <si>
+    <t>Neu_IT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,11 +343,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -740,125 +670,125 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59" customWidth="1" style="3"/>
-    <col min="2" max="2" width="21.140625" customWidth="1" style="3"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1" style="3"/>
+    <col min="1" max="1" width="59" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -868,566 +798,426 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" style="2"/>
-    <col min="2" max="2" width="21" customWidth="1" style="2"/>
+    <col min="1" max="1" width="35" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59" customWidth="1" style="3"/>
-    <col min="2" max="2" width="21.140625" customWidth="1" style="3"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1" style="3"/>
+    <col min="1" max="1" width="59" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3">
-        <v>311130</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>774410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3">
-        <v>313330</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>774430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3">
-        <v>313300</v>
+        <v>774440</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3">
-        <v>313340</v>
+        <v>774420</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3">
-        <v>313340</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="3">
-        <v>313350</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="3">
-        <v>313380</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="3">
-        <v>313380</v>
-      </c>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="3">
-        <v>313370</v>
-      </c>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="3">
-        <v>313290</v>
-      </c>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="3">
-        <v>313330</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="3">
-        <v>313280</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="3">
-        <v>313360</v>
-      </c>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="3">
-        <v>313510</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="3">
-        <v>313520</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="3">
-        <v>317170</v>
-      </c>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="3">
-        <v>316120</v>
-      </c>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="3">
-        <v>774410</v>
-      </c>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="3">
-        <v>774430</v>
-      </c>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="3">
-        <v>774440</v>
-      </c>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="3">
-        <v>774450</v>
-      </c>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="3">
-        <v>774420</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="3">
-        <v>317170</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="3">
-        <v>317170</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="3">
-        <v>774440</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="3">
-        <v>313360</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="3">
-        <v>313420</v>
-      </c>
     </row>
   </sheetData>
   <sortState ref="A2:B22">
@@ -1435,7 +1225,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1449,94 +1238,234 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>79</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D6DB5543B85E624D908FDC9DCB013909" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="20311a418425cac8208054aada98f93c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a78c7441-44ac-4821-83dc-e759113b97ee" xmlns:ns3="a9ab1965-2431-44e9-8b04-0730b9b8d91c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf2964d24f05c528ca7e20f764dc012d" ns2:_="" ns3:_="">
     <xsd:import namespace="a78c7441-44ac-4821-83dc-e759113b97ee"/>
@@ -1765,15 +1694,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1786,6 +1706,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA8C1A7-81C5-4BF5-9FAB-8BC732F393CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{379C0BCE-44CC-4A46-B005-C45B6791CB6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1804,14 +1732,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA8C1A7-81C5-4BF5-9FAB-8BC732F393CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EB64057-20EF-4D55-BE5A-EDF2ECA10D54}">
   <ds:schemaRefs>
